--- a/C61/Phase 3/3_Planification.xlsx
+++ b/C61/Phase 3/3_Planification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\C61-ProjetSynthese\C61\Phase 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F9279-7980-4CCE-A48C-3A14A6968DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D4E01-7A48-4E58-82E5-2865DF3D0270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plannification globale" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
   <si>
     <t>Dany Viens</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Non implanté - optionnel</t>
+  </si>
+  <si>
+    <t>Quelques situations où des erreurs pourrait s'afficher (ex: mettre une date limite d'inscription suivant la date de début d'un évènement)</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,9 +2089,11 @@
         <v>2</v>
       </c>
       <c r="K35" s="26">
-        <v>100</v>
-      </c>
-      <c r="L35" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="4">

--- a/C61/Phase 3/3_Planification.xlsx
+++ b/C61/Phase 3/3_Planification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\C61-ProjetSynthese\C61\Phase 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D4E01-7A48-4E58-82E5-2865DF3D0270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA880F66-CC12-4652-94A5-4B754461C892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plannification globale" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
   <si>
     <t>Dany Viens</t>
   </si>
@@ -528,6 +528,9 @@
   </si>
   <si>
     <t>Quelques situations où des erreurs pourrait s'afficher (ex: mettre une date limite d'inscription suivant la date de début d'un évènement)</t>
+  </si>
+  <si>
+    <t>Implanté !</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -763,17 +766,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -798,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -821,20 +813,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,32 +1676,32 @@
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="34">
+      <c r="C23" s="33">
         <v>15</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="H23" s="33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="33">
         <v>1.25</v>
       </c>
-      <c r="J23" s="35">
-        <v>1</v>
-      </c>
-      <c r="K23" s="36">
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
+      <c r="K23" s="35">
         <v>0</v>
       </c>
       <c r="L23" s="27" t="s">
@@ -2158,32 +2149,32 @@
       <c r="L37" s="26"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>30</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>11.12</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="31">
         <v>2.5</v>
       </c>
-      <c r="J38" s="33">
+      <c r="J38" s="32">
         <v>2</v>
       </c>
-      <c r="K38" s="31">
+      <c r="K38" s="30">
         <v>0</v>
       </c>
       <c r="L38" s="26" t="s">
@@ -2191,32 +2182,32 @@
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <v>31</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>18.190000000000001</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="31">
         <v>4</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="32">
         <v>2</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="30">
         <v>0</v>
       </c>
       <c r="L39" s="26" t="s">
@@ -2246,10 +2237,10 @@
       <c r="I40" s="28">
         <v>1</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>3</v>
       </c>
-      <c r="K40" s="31" t="s">
+      <c r="K40" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L40" s="26" t="s">
@@ -2279,10 +2270,10 @@
       <c r="I41" s="28">
         <v>1</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>3</v>
       </c>
-      <c r="K41" s="31" t="s">
+      <c r="K41" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L41" s="26" t="s">
@@ -2405,10 +2396,10 @@
       <c r="I45" s="28">
         <v>0.75</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <v>3</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="30">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="s">
@@ -2438,10 +2429,10 @@
       <c r="I46" s="28">
         <v>0.75</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <v>3</v>
       </c>
-      <c r="K46" s="31" t="s">
+      <c r="K46" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L46" s="26" t="s">
@@ -2471,10 +2462,10 @@
       <c r="I47" s="28">
         <v>1.5</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <v>3</v>
       </c>
-      <c r="K47" s="31" t="s">
+      <c r="K47" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L47" s="26" t="s">
@@ -2504,10 +2495,10 @@
       <c r="I48" s="28">
         <v>1.5</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <v>3</v>
       </c>
-      <c r="K48" s="31" t="s">
+      <c r="K48" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L48" s="26" t="s">
@@ -2537,10 +2528,10 @@
       <c r="I49" s="28">
         <v>1.5</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="29">
         <v>3</v>
       </c>
-      <c r="K49" s="31" t="s">
+      <c r="K49" s="30" t="s">
         <v>87</v>
       </c>
       <c r="L49" s="26" t="s">
@@ -2548,36 +2539,36 @@
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C50" s="28">
+      <c r="C50" s="2">
         <v>42</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="2">
         <v>32.33</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="2">
         <v>2</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="25">
         <v>3</v>
       </c>
-      <c r="K50" s="31">
-        <v>0</v>
+      <c r="K50" s="26">
+        <v>100</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
@@ -2603,10 +2594,10 @@
       <c r="I51" s="28">
         <v>3</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <v>3</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="30">
         <v>25</v>
       </c>
       <c r="L51" s="26" t="s">
@@ -2636,10 +2627,10 @@
       <c r="I52" s="28">
         <v>2</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="29">
         <v>3</v>
       </c>
-      <c r="K52" s="31">
+      <c r="K52" s="30">
         <v>0</v>
       </c>
       <c r="L52" s="26" t="s">
